--- a/medicine/Psychotrope/Adolf_Rambold/Adolf_Rambold.xlsx
+++ b/medicine/Psychotrope/Adolf_Rambold/Adolf_Rambold.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adolf Rambold, né le 5 octobre 1900 à Stuttgart et mort le 14 mai 1996 à Meerbusch, est un inventeur et un ingénieur allemand.
 Il est considéré comme l’inventeur du sachet de thé moderne à double chambres ainsi que des machines d'emballage associées.
@@ -512,10 +524,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1924, Adolf Rambold est engagé comme serrurier par la Société allemande Teekanne GmbH &amp; Co. KG à Düsseldorf[1].
-En 1928, il développe le sachet de thé et la machine d’emballage « Pompadour » qui produit 35 sachets de thé par minute[1]. En 1949, il crée la « Constanta-Teepackmaschine » capable de produire 160 sacs double chambres par minute[2]. Il fonde, à Meerbusch, une filiale de Teekanne, la « Teepack Spezialmaschinen GmbH ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1924, Adolf Rambold est engagé comme serrurier par la Société allemande Teekanne GmbH &amp; Co. KG à Düsseldorf.
+En 1928, il développe le sachet de thé et la machine d’emballage « Pompadour » qui produit 35 sachets de thé par minute. En 1949, il crée la « Constanta-Teepackmaschine » capable de produire 160 sacs double chambres par minute. Il fonde, à Meerbusch, une filiale de Teekanne, la « Teepack Spezialmaschinen GmbH ».
 </t>
         </is>
       </c>
